--- a/docs/source/docs/ATP/procedures.xlsx
+++ b/docs/source/docs/ATP/procedures.xlsx
@@ -3,13 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5BF07B-C4BB-401A-978F-738233CCDF84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E93C9E-3C8F-42B2-A95C-8C6CDD27932E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
     <sheet name="SR4.2.1" sheetId="1" r:id="rId2"/>
+    <sheet name="SR4.2.4" sheetId="3" r:id="rId3"/>
+    <sheet name="SR4.3.1" sheetId="4" r:id="rId4"/>
+    <sheet name="SSR4.3.1.1" sheetId="5" r:id="rId5"/>
+    <sheet name="SSR4.3.1.2" sheetId="6" r:id="rId6"/>
+    <sheet name="SSR4.3.1.3" sheetId="7" r:id="rId7"/>
+    <sheet name="SSR4.3.1.4" sheetId="8" r:id="rId8"/>
+    <sheet name="SSR4.3.1.5" sheetId="9" r:id="rId9"/>
+    <sheet name="SR4.6.3" sheetId="10" r:id="rId10"/>
+    <sheet name="SR4.6.4" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
   <si>
     <t>Title</t>
   </si>
@@ -95,9 +104,6 @@
     <t>**Settings** is open</t>
   </si>
   <si>
-    <t>Refer to Figure 1.1</t>
-  </si>
-  <si>
     <t>Windows Search Bar comes into focus</t>
   </si>
   <si>
@@ -111,13 +117,506 @@
   </si>
   <si>
     <t>Acceptance Test Content Sheet</t>
+  </si>
+  <si>
+    <t>Refer to @OS_test_01.png</t>
+  </si>
+  <si>
+    <t>Figure (filename)</t>
+  </si>
+  <si>
+    <t>Figure (caption)</t>
+  </si>
+  <si>
+    <t>OS_test_01.png</t>
+  </si>
+  <si>
+    <t>The Windows 10 system settings dialog showing that you're running Windows 10 version 1903</t>
+  </si>
+  <si>
+    <t>This workbook is used for documenting test procedures for the Facile software system. The information has bee copied from Andrew Kirima's great document located on the google drive at https://drive.google.com/drive/u/1/folders/1wbY-9-k2LfuwujSdORRk5sPbsOgi3Whv.
+The intention of this document is to isolate the content of the testing procedures without worrying about formatting. It also makes it easier to maintain.</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>Each sheet in this workbook is a separate test case. A program will read all sheets except for this one, extract the content, parse it, and insert it into the reStructuredText files. Those files will then be translated by Sphinx into HTML, LaTeX, etc.
+Because this workbook is parsed by a program, it's critical that the following conventions are kept.</t>
+  </si>
+  <si>
+    <t>Each of the following columns must exist:</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e </t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>A paragraph describing the purpose of the test.</t>
+  </si>
+  <si>
+    <t>The name of the acceptance test.</t>
+  </si>
+  <si>
+    <t>A summary of the requirements that are being tested in this acceptance test.</t>
+  </si>
+  <si>
+    <t>Conditions that must be satisfied before the test is run.
+(mulitple items allowed)</t>
+  </si>
+  <si>
+    <t>Any required equipment.
+(multiple items allowed)</t>
+  </si>
+  <si>
+    <t>Any Referenced Documents.
+(multiple items allowed)</t>
+  </si>
+  <si>
+    <t>Descriptive steps that the user takes to perform the test.
+(multiple items allowed)
+(must have same number as expected results)</t>
+  </si>
+  <si>
+    <t>Descriptive results that the user takes to perform the test. See rule 2 for how to reference pictures.
+(multiple items allowed)
+(must have same number as action)</t>
+  </si>
+  <si>
+    <t>Names of files for this test procedure.
+(multiple items allowed)</t>
+  </si>
+  <si>
+    <t>The caption for each corresponding image in the Figure (filename) column.
+(multiple items allowed)
+(Each image MUST have a caption)</t>
+  </si>
+  <si>
+    <t>Referencing images</t>
+  </si>
+  <si>
+    <t>To reference an image within the test procedure, simply use @&lt;FILENAME&gt;. The file will be found in the images folder, inserted into the document, numbered, titled, captioned, and linked to where the @&lt;FILENAME&gt; reference exists.
+See conventions and limitations below.</t>
+  </si>
+  <si>
+    <t>filenames</t>
+  </si>
+  <si>
+    <t>The convention is to use underscores for spaces and to use the same name for each image in a procedure, but change a number at the end of the filename. For example, OS_test_01.png, OS_test_02.png, etc.</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>Filenames must NOT contain whitespace or special characters other than underscores.</t>
+  </si>
+  <si>
+    <t>Bold</t>
+  </si>
+  <si>
+    <t>Italicize</t>
+  </si>
+  <si>
+    <t>Inline styling markup</t>
+  </si>
+  <si>
+    <t>You can bold text using 2 asterisks before and 2 asterisks after the text to be bolded. Whitespace must be directly outside of the asterisks and must not be directly inside of the asterisks.</t>
+  </si>
+  <si>
+    <t>You can bold text using 1 asterisk before and 1 asterisk after the text to be italicized. Whitespace must be directly outside of the asterisks and must not be directly inside of the asterisks.</t>
+  </si>
+  <si>
+    <t>literal</t>
+  </si>
+  <si>
+    <t>You can make text appear as literal by putting double backticks around it. Literal text is usually shown as monospace.</t>
+  </si>
+  <si>
+    <t>Multiple Entries</t>
+  </si>
+  <si>
+    <t>Some fields are marked as "multiple entries are allowed". These fields will be inserted into the reStructuredText files as either lists, tables, or simply multiple entries. To create multiple entries, simply populate consecutive cells in the columns of interest starting with the topmost column.
+If you wish to put multiple paragraphs, do so within a single cell. You can achieve this by using ALT-Enter on your keyboard.</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile is functional while using a Python 3.7.4 interpreter.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required with the intended programming language. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>Click on the **Windows Search Bar**</t>
+  </si>
+  <si>
+    <t>Type **cmd**</t>
+  </si>
+  <si>
+    <t>Click on the command prompt</t>
+  </si>
+  <si>
+    <t>Type **python**</t>
+  </si>
+  <si>
+    <t>Navigate to the directory containing facile.py, then type "python facile.py" in the **Command line**</t>
+  </si>
+  <si>
+    <t>**Windows Search Bar** comes into focus</t>
+  </si>
+  <si>
+    <t>The sindows **Command Prompt** opens</t>
+  </si>
+  <si>
+    <t>Refer to @language_test_01.png</t>
+  </si>
+  <si>
+    <t>A snippit of the Windows Command Prompt after typing *python* and pressing Enter. It shows the version and bitness of the Python interpreter being run.</t>
+  </si>
+  <si>
+    <t>language_test_01.png</t>
+  </si>
+  <si>
+    <t>Programming Language Acceptance Test</t>
+  </si>
+  <si>
+    <t>Graphical User Interface Acceptance Test</t>
+  </si>
+  <si>
+    <t>Type **cmd** and press Enter</t>
+  </si>
+  <si>
+    <t>Click on **File**</t>
+  </si>
+  <si>
+    <t>Click on **New Project**</t>
+  </si>
+  <si>
+    <t>Click on **From Scratch**</t>
+  </si>
+  <si>
+    <t>Fill in **Project Name** and **Project Description.** Upload your **Project Folder** and **Target Application.** Choose the category the **Target Application** best fits under. Finally, click **OK.**</t>
+  </si>
+  <si>
+    <t>Click on **Start App**</t>
+  </si>
+  <si>
+    <t>Click on **Auto Explore** or **Manual Explore**</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile has a functional GUI that interacts with the user.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.
+.. note::
+    The requirement that this test case is verifying is not completed yet because sub-system and sub-assembly requirements must first be completed.</t>
+  </si>
+  <si>
+    <t>**Windows Seach Bar** comes into focus.</t>
+  </si>
+  <si>
+    <t>A **Command Prompt** opens</t>
+  </si>
+  <si>
+    <t>Facile should run.</t>
+  </si>
+  <si>
+    <t>Refer to @GUI_test_01.png</t>
+  </si>
+  <si>
+    <t>Refer to @GUI_test_02.png</t>
+  </si>
+  <si>
+    <t>**Target Application** will pop up.</t>
+  </si>
+  <si>
+    <t>A model of the target GUI is shown in the view. Test case is completed.</t>
+  </si>
+  <si>
+    <t>GUI_test_01.png</t>
+  </si>
+  <si>
+    <t>GUI_test_02.png</t>
+  </si>
+  <si>
+    <t>A snippit of the Facile software system that shows the menu path to create a new project from scratch.</t>
+  </si>
+  <si>
+    <t>A snippit of the Facile project creation dialog. This dialog allows the user to specify some basic information abou the project and application they wish to control.</t>
+  </si>
+  <si>
+    <t>Target GUI Component Identifier Acceptance Test</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile has a view that will allow the user to identify components of a target GUI.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the target GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>A Facile project has already been created.</t>
+  </si>
+  <si>
+    <t>Type **cmd** and press enter</t>
+  </si>
+  <si>
+    <t>Click on **File** in the menu.</t>
+  </si>
+  <si>
+    <t>Click on **Recent Projects**</t>
+  </si>
+  <si>
+    <t>Click on a recent project that you created previously.</t>
+  </si>
+  <si>
+    <t>See @TGUICI_test_01.png</t>
+  </si>
+  <si>
+    <t>**Target Application** will run.</t>
+  </si>
+  <si>
+    <t>GUI is shown in the view with components highlighted in red. Test case is completed.</t>
+  </si>
+  <si>
+    <t>TGUICI_test_01.png</t>
+  </si>
+  <si>
+    <t>A snippit of the Facile software system that shows the menu path to open an existing project.</t>
+  </si>
+  <si>
+    <t>Target GUI Behavior Mapper Acceptance Test</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile has a GUI that contains a view that allows the users to specify ‘Show/Hide’ for relation between two components.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.2 The Facile GUI shall contain a view that allows user to specify ‘Show/Hide’ relation between two components.</t>
+  </si>
+  <si>
+    <t>Click on the same button that you clicked on in the previous step.</t>
+  </si>
+  <si>
+    <t>Click on **Add Behavior**</t>
+  </si>
+  <si>
+    <t>Click on 2 highlighted components that are shown in the view.</t>
+  </si>
+  <si>
+    <t>Select the new visibility behavior in the **project explorer**.</t>
+  </si>
+  <si>
+    <t>Double click on the right column of the Reaction Type property.</t>
+  </si>
+  <si>
+    <t>Click on **Shows** or **Hides**</t>
+  </si>
+  <si>
+    <t>Select any behavior in the **Project Explorer**</t>
+  </si>
+  <si>
+    <t>an arrow will be drawn going from the first component to the second component.</t>
+  </si>
+  <si>
+    <t>The properties for the selected visibility behavior will be shown in the Properties editor.</t>
+  </si>
+  <si>
+    <t>Options of **Show** or **Hide** will appear in the dropdown menu.</t>
+  </si>
+  <si>
+    <t>Reaction Type property is altered</t>
+  </si>
+  <si>
+    <t>Reaction Type property iis changed in the **Project Explorer**. Test case is completed.</t>
+  </si>
+  <si>
+    <t>To verify SR4.2.4 - Facile source code shall be compatible with the Python 3.7.4 interpreter.</t>
+  </si>
+  <si>
+    <t>To verify SR4.3.1 - Facile shall contain a GUI that interacts with the user to produce custom APIs that control the target GUI.</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.1 - The Facile GUI shall contain a view that allows users to identify components from the target GUI.</t>
+  </si>
+  <si>
+    <t>Context menu of items will be shown</t>
+  </si>
+  <si>
+    <t>Context menu of recent projects will be shown.</t>
+  </si>
+  <si>
+    <t>The selected project will be opened.</t>
+  </si>
+  <si>
+    <t>**Target Application** will open</t>
+  </si>
+  <si>
+    <t>GUI is shown in the view with the selected component highlighted in red.</t>
+  </si>
+  <si>
+    <t>**Observer** (and **Explorer**) will stop running.</t>
+  </si>
+  <si>
+    <t>Facile will enter the **ADD_VB** state and wait for the user to select 2 components.</t>
+  </si>
+  <si>
+    <t>Project Overview Sidebar Acceptance Test</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile has a GUI, that will have a view of all model components of the API project.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.3 - The system shall contain a view that shows all model components of the API project.</t>
+  </si>
+  <si>
+    <t>Project is saved with the *.fcl* extension in the selected folder. Refer to @GUI_test_02.png</t>
+  </si>
+  <si>
+    <t>A model of the target GUI is shown in the view.</t>
+  </si>
+  <si>
+    <t>In the left sidebar, expand **Project**, then expand **GUI Components**</t>
+  </si>
+  <si>
+    <t>All of the GUI Components that make up the project are shown as a hierarchical view in the project explorer.</t>
+  </si>
+  <si>
+    <t>Property Editor Panel Acceptance Test</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile has a functional GUI that shall contain a view that allows the user to edit specific properties. The properties will be for any model components of the project that are selected by the user.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>To verify SRR 4.3.1.4 - The system shall contain a view that allows the user to edit specific properties for any model components in the project.</t>
+  </si>
+  <si>
+    <t>Click on a component in the **Target GUI Model Graphics View**</t>
+  </si>
+  <si>
+    <t>Highlighted component will have its properties shown in the **Property Editor** view.</t>
+  </si>
+  <si>
+    <t>Click on a property in the **Property Editor** view</t>
+  </si>
+  <si>
+    <t>The property will come into focus. Refer to @property_test_01.png</t>
+  </si>
+  <si>
+    <t>Edit the property value (If editable)</t>
+  </si>
+  <si>
+    <t>property_test_01.png</t>
+  </si>
+  <si>
+    <t>Shows the Facile software with the *Name* property selected. The *Name* property is always editable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of the property is edited. </t>
+  </si>
+  <si>
+    <t>Select a different component and then select the one that had the *Name* property changed.</t>
+  </si>
+  <si>
+    <t>The *Name* of the component has been updated in the **Project Explorer**. Test is complete</t>
+  </si>
+  <si>
+    <t>Project Settings Dialog Acceptance Test</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile has a functional GUI that contains a dialog that will allow the user to edit the setting of a specified project.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.5 - The Facile GUI shall contain a dialog that allows the user to edit project settings.</t>
+  </si>
+  <si>
+    <t>Click on **File** again</t>
+  </si>
+  <si>
+    <t>Click on **Project Settings**</t>
+  </si>
+  <si>
+    <t>Refer to @settings_test_01.png</t>
+  </si>
+  <si>
+    <t>Edit any project setting and click on **Save**</t>
+  </si>
+  <si>
+    <t>Project setting is edited and saved.</t>
+  </si>
+  <si>
+    <t>Close the project settings dialog.</t>
+  </si>
+  <si>
+    <t>Open the project settings dialog again.</t>
+  </si>
+  <si>
+    <t>The project settings dialog is closed.</t>
+  </si>
+  <si>
+    <t>The updated values should show. Test case is completed.</t>
+  </si>
+  <si>
+    <t>settings_test_01.png</t>
+  </si>
+  <si>
+    <t>Shows the Project Settings dialog.</t>
+  </si>
+  <si>
+    <t>Project File Extension Acceptance Test</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile will have its project files saved with a .fcl extension.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>In the Windows taskbar, click on **File Explorer** and navigate to your project folder.</t>
+  </si>
+  <si>
+    <t>A variety of files are shown. The main file is the name of your project with the *.fcl* extension. Refer to @extension_test_01.png</t>
+  </si>
+  <si>
+    <t>extension_test_01.png</t>
+  </si>
+  <si>
+    <t>Shows the files in your project. The filenames in your project may differ, but the extensions should remain the same.</t>
+  </si>
+  <si>
+    <t>Project File Format Acceptance Test</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile will have project files than be in a human-readable format such as JSON.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>To verify SR 4.6.4 - Facile project files shall be in a human-readable format such as JSON.</t>
+  </si>
+  <si>
+    <t>Right click on the project file (*.fcl* extension) and select **Open with**. Select a text editor to open the file with.</t>
+  </si>
+  <si>
+    <t>The content of the Project file is shown in human-readable format in the chosen text editor. Test case completed.</t>
+  </si>
+  <si>
+    <t>Verify that the *Python 3.7.4* and *32-bit* exist in the resulting text from the previous step.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +657,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Castellar"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +707,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -181,11 +734,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -199,14 +926,185 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,97 +1386,1410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAD1217-8B4A-4FAD-B4A9-6A7FF2C87FBC}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I6"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="3.26171875" customWidth="1"/>
+    <col min="3" max="3" width="13.05078125" customWidth="1"/>
+    <col min="4" max="4" width="15.83984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="20"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="20"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="20"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="20"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="20"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="20"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="42">
+        <v>1</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="43"/>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="43"/>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="43"/>
+      <c r="B22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="43"/>
+      <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="43"/>
+      <c r="B24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="43"/>
+      <c r="B25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="43"/>
+      <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="43"/>
+      <c r="B27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="43"/>
+      <c r="B28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="44"/>
+      <c r="B29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A30" s="45">
+        <v>2</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="46"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="46"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="46"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="46"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="46"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="46"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="46"/>
+      <c r="B37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="46"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="46"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="38"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="46"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="46"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="47"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A43" s="45">
+        <v>3</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="61"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="46"/>
+      <c r="B44" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="46"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="46"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="56"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="46"/>
+      <c r="B47" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="46"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="46"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="56"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="46"/>
+      <c r="B50" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="46"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="47"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A53" s="45">
+        <v>4</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="61"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="39"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="38"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="C54:I63"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="D47:I49"/>
+    <mergeCell ref="D50:I52"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D38:I40"/>
+    <mergeCell ref="D41:I42"/>
+    <mergeCell ref="C31:I36"/>
+    <mergeCell ref="D44:I46"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A19:A29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B5E574-C0A0-410C-BD01-0D5765B42B4A}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="39.5234375" customWidth="1"/>
+    <col min="2" max="2" width="55.3125" customWidth="1"/>
+    <col min="3" max="3" width="25.83984375" customWidth="1"/>
+    <col min="4" max="4" width="26.734375" customWidth="1"/>
+    <col min="5" max="5" width="33.05078125" customWidth="1"/>
+    <col min="6" max="6" width="32.41796875" customWidth="1"/>
+    <col min="7" max="7" width="24.3671875" customWidth="1"/>
+    <col min="8" max="8" width="25.15625" customWidth="1"/>
+    <col min="9" max="9" width="18.83984375" customWidth="1"/>
+    <col min="10" max="10" width="21.62890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="216" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I6"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F85CACF-4790-4931-9075-36197B0BDD71}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="27.68359375" customWidth="1"/>
+    <col min="2" max="2" width="30.9453125" customWidth="1"/>
+    <col min="3" max="3" width="29.89453125" customWidth="1"/>
+    <col min="4" max="4" width="24.62890625" customWidth="1"/>
+    <col min="5" max="5" width="28.3125" customWidth="1"/>
+    <col min="6" max="6" width="26.89453125" customWidth="1"/>
+    <col min="7" max="7" width="24.1015625" customWidth="1"/>
+    <col min="8" max="8" width="21.1015625" customWidth="1"/>
+    <col min="9" max="10" width="26.1015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="239.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
+      <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -591,10 +2802,12 @@
     <col min="6" max="6" width="32.578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="46.20703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="43.62890625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="2"/>
+    <col min="9" max="9" width="29.05078125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.3125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -619,8 +2832,14 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,8 +2864,14 @@
       <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -661,8 +2886,10 @@
       <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -673,10 +2900,12 @@
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -687,10 +2916,12 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -701,10 +2932,12 @@
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -715,10 +2948,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -729,11 +2964,1935 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA8D0F-FA1A-48F3-B60B-00BC5DF66123}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.3671875" customWidth="1"/>
+    <col min="2" max="2" width="68.734375" customWidth="1"/>
+    <col min="3" max="3" width="16.1015625" customWidth="1"/>
+    <col min="4" max="4" width="19.26171875" customWidth="1"/>
+    <col min="5" max="5" width="38.3125" customWidth="1"/>
+    <col min="6" max="6" width="17.7890625" customWidth="1"/>
+    <col min="7" max="7" width="25.9453125" customWidth="1"/>
+    <col min="8" max="8" width="19.5234375" customWidth="1"/>
+    <col min="9" max="9" width="12.15625" customWidth="1"/>
+    <col min="10" max="10" width="22.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="93" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B71E50-493D-4640-A992-202C8A3B64C0}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G2:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.20703125" customWidth="1"/>
+    <col min="2" max="2" width="53.89453125" customWidth="1"/>
+    <col min="3" max="3" width="28.3125" customWidth="1"/>
+    <col min="4" max="4" width="22.9453125" customWidth="1"/>
+    <col min="5" max="5" width="21.1015625" customWidth="1"/>
+    <col min="6" max="6" width="19.26171875" customWidth="1"/>
+    <col min="7" max="7" width="34.26171875" customWidth="1"/>
+    <col min="8" max="8" width="45.15625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="22.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="74.400000000000006" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="207" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E612745-E32A-4DF6-8B6E-CDF906DFB81F}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.62890625" customWidth="1"/>
+    <col min="2" max="2" width="52.7890625" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" customWidth="1"/>
+    <col min="5" max="5" width="19.1015625" customWidth="1"/>
+    <col min="6" max="6" width="18.3125" customWidth="1"/>
+    <col min="7" max="7" width="28.47265625" customWidth="1"/>
+    <col min="8" max="8" width="39.41796875" customWidth="1"/>
+    <col min="9" max="9" width="29.5234375" customWidth="1"/>
+    <col min="10" max="10" width="26.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FACE536-9F56-44F1-B9C1-D7AFBBB4D88C}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="32.15625" customWidth="1"/>
+    <col min="2" max="2" width="67.3125" customWidth="1"/>
+    <col min="3" max="3" width="39.7890625" customWidth="1"/>
+    <col min="4" max="4" width="39.89453125" customWidth="1"/>
+    <col min="5" max="5" width="32.41796875" customWidth="1"/>
+    <col min="6" max="6" width="26.1015625" customWidth="1"/>
+    <col min="7" max="7" width="28.20703125" customWidth="1"/>
+    <col min="8" max="8" width="30.15625" customWidth="1"/>
+    <col min="9" max="9" width="24.62890625" customWidth="1"/>
+    <col min="10" max="10" width="23.734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="187.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B8225-13D8-4953-92D6-8112B577B21E}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="29.62890625" customWidth="1"/>
+    <col min="2" max="2" width="49.26171875" customWidth="1"/>
+    <col min="3" max="3" width="31.20703125" customWidth="1"/>
+    <col min="4" max="4" width="31.1015625" customWidth="1"/>
+    <col min="5" max="5" width="22.68359375" customWidth="1"/>
+    <col min="6" max="6" width="23.734375" customWidth="1"/>
+    <col min="7" max="7" width="19.7890625" customWidth="1"/>
+    <col min="8" max="8" width="23.47265625" customWidth="1"/>
+    <col min="9" max="9" width="28.20703125" customWidth="1"/>
+    <col min="10" max="10" width="32.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="155.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83044C7C-9E56-4B9C-9D9C-01FE54DD804F}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="37.68359375" customWidth="1"/>
+    <col min="2" max="2" width="63.578125" customWidth="1"/>
+    <col min="3" max="3" width="33.3125" customWidth="1"/>
+    <col min="4" max="4" width="31.1015625" customWidth="1"/>
+    <col min="5" max="5" width="37.15625" customWidth="1"/>
+    <col min="6" max="6" width="30.15625" customWidth="1"/>
+    <col min="7" max="7" width="30.05078125" customWidth="1"/>
+    <col min="8" max="8" width="28.734375" customWidth="1"/>
+    <col min="9" max="9" width="24.26171875" customWidth="1"/>
+    <col min="10" max="10" width="25.83984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="188.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="2"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="2"/>
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="2"/>
+      <c r="H17" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB7A820-7995-470D-BE20-79FB7431179A}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="30.83984375" customWidth="1"/>
+    <col min="2" max="2" width="50.68359375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="24.7890625" customWidth="1"/>
+    <col min="5" max="5" width="23.578125" customWidth="1"/>
+    <col min="6" max="6" width="24.5234375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="24.3671875" customWidth="1"/>
+    <col min="9" max="9" width="22.41796875" customWidth="1"/>
+    <col min="10" max="10" width="23.47265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="221.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/source/docs/ATP/procedures.xlsx
+++ b/docs/source/docs/ATP/procedures.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E93C9E-3C8F-42B2-A95C-8C6CDD27932E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A646E3E9-0681-44FC-A9EE-C10815A267A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -402,12 +402,6 @@
     <t>Target GUI Behavior Mapper Acceptance Test</t>
   </si>
   <si>
-    <t>This acceptance test document verifies that the software system, Facile has a GUI that contains a view that allows the users to specify ‘Show/Hide’ for relation between two components.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
-    <t>To verify SSR 4.3.1.2 The Facile GUI shall contain a view that allows user to specify ‘Show/Hide’ relation between two components.</t>
-  </si>
-  <si>
     <t>Click on the same button that you clicked on in the previous step.</t>
   </si>
   <si>
@@ -610,6 +604,12 @@
   </si>
   <si>
     <t>Verify that the *Python 3.7.4* and *32-bit* exist in the resulting text from the previous step.</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.2 The Facile GUI shall contain a view that allows user to specify 'Show/Hide' relation between two components.</t>
+  </si>
+  <si>
+    <t>This acceptance test document verifies that the software system, Facile has a GUI that contains a view that allows the users to specify 'Show/Hide' for relation between two components.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
   </si>
 </sst>
 </file>
@@ -939,64 +939,127 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,17 +1088,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1045,66 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAD1217-8B4A-4FAD-B4A9-6A7FF2C87FBC}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1400,828 +1400,846 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="38"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="20"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="38"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="20"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="38"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="20"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="38"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="20"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="38"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="20"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="38"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="20"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="38"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="38"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="42">
+      <c r="A19" s="62">
         <v>1</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
     </row>
     <row r="20" spans="1:9" ht="20.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="43"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="39"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="43"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="39"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="43"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="45"/>
+      <c r="E22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="39"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="43"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="45"/>
+      <c r="E23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="39"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="43"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="39"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="43"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="39"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="43"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="39"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="43"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="63"/>
+      <c r="B27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="39"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="43"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="40"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="44"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="45"/>
+      <c r="E29" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="41"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="45">
+      <c r="A30" s="29">
         <v>2</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="46"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="15" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="39"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="46"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="38"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="46"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="38"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="46"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="38"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="46"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="38"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="46"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="38"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="46"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="46"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="23" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="39"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="46"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="18.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="46"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="46"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="23" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="24"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="47"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="40"/>
     </row>
     <row r="43" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A43" s="45">
+      <c r="A43" s="29">
         <v>3</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="61"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="46"/>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="39"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="46"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="38"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="46"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="56"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="46"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="39"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="46"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="38"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="46"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="46"/>
-      <c r="B50" s="51" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="39"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="46"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="38"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="47"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="56"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A53" s="45">
+      <c r="A53" s="29">
         <v>4</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="61"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="39"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="38"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="38"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="38"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="38"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="38"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="38"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="38"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="38"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="56"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="C54:I63"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A30:A42"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="D47:I49"/>
@@ -2235,32 +2253,14 @@
     <mergeCell ref="D44:I46"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="C54:I63"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A43:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="2" spans="1:10" ht="216" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2347,10 +2347,10 @@
         <v>94</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2462,7 +2462,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -2475,10 +2475,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="2" spans="1:10" ht="239.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2591,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -2718,7 +2718,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -2731,10 +2731,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
@@ -2747,10 +2747,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
@@ -2788,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3002,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA8D0F-FA1A-48F3-B60B-00BC5DF66123}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3056,7 +3056,7 @@
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3065,8 +3065,8 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>132</v>
+      <c r="E2" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -3142,7 +3142,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>81</v>
@@ -3301,7 +3301,7 @@
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3310,8 +3310,8 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>133</v>
+      <c r="E2" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -3566,7 +3566,7 @@
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3576,7 +3576,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -3710,7 +3710,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3771,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FACE536-9F56-44F1-B9C1-D7AFBBB4D88C}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3825,8 +3825,8 @@
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>118</v>
+      <c r="B2" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3835,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -3912,7 +3912,7 @@
         <v>109</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
@@ -3928,7 +3928,7 @@
         <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
@@ -3944,7 +3944,7 @@
         <v>111</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
@@ -3960,7 +3960,7 @@
         <v>91</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -3976,7 +3976,7 @@
         <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
@@ -3989,10 +3989,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
@@ -4005,10 +4005,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
@@ -4021,44 +4021,44 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4070,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B8225-13D8-4953-92D6-8112B577B21E}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="2" spans="1:10" ht="155.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -4134,7 +4134,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -4261,7 +4261,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -4293,7 +4293,7 @@
         <v>92</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
@@ -4306,10 +4306,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
@@ -4387,10 +4387,10 @@
     </row>
     <row r="2" spans="1:10" ht="188.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -4399,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -4411,10 +4411,10 @@
         <v>79</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -4480,7 +4480,7 @@
         <v>109</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
@@ -4496,7 +4496,7 @@
         <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
@@ -4512,7 +4512,7 @@
         <v>111</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
@@ -4528,7 +4528,7 @@
         <v>91</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -4544,7 +4544,7 @@
         <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
@@ -4557,10 +4557,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
@@ -4573,10 +4573,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
@@ -4589,33 +4589,33 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="2"/>
-      <c r="H15" s="58"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="2"/>
-      <c r="H16" s="58"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" s="2"/>
-      <c r="H17" s="58"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="2" spans="1:10" ht="221.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -4689,8 +4689,8 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>164</v>
+      <c r="E2" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -4702,10 +4702,10 @@
         <v>79</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -4771,7 +4771,7 @@
         <v>109</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
@@ -4787,7 +4787,7 @@
         <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
@@ -4803,7 +4803,7 @@
         <v>111</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
@@ -4816,10 +4816,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
@@ -4832,10 +4832,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
@@ -4848,15 +4848,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4864,10 +4864,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
@@ -4880,10 +4880,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>

--- a/docs/source/docs/ATP/procedures.xlsx
+++ b/docs/source/docs/ATP/procedures.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233B453C-2ABE-4F40-9B57-01FBB07E6994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641102F4-47A5-47F5-99DA-CFAC9FD31803}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -636,9 +636,6 @@
     <t xml:space="preserve">Observe the **Project Explorer** view and **Property Editor** view on the left of the Target GUI view. </t>
   </si>
   <si>
-    <t>See @TGUICI_test_02.png.</t>
-  </si>
-  <si>
     <t>Selected component of the **Target GUI**, it's properties, and its behavior are now shown in views. Test case is completed.</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   </si>
   <si>
     <t>A snippit of the Facile project creation dialog. This dialog allows the user to specify some basic information about the project and application they wish to control.</t>
+  </si>
+  <si>
+    <t>See @TGUICI_test_02.png .</t>
   </si>
 </sst>
 </file>
@@ -1034,6 +1034,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1048,135 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,836 +1464,854 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="3.20703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="62">
         <v>1</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="63"/>
       <c r="B20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="37" t="s">
+      <c r="D20" s="61"/>
+      <c r="E20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="63"/>
       <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="63"/>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="37" t="s">
+      <c r="D22" s="61"/>
+      <c r="E22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="63"/>
       <c r="B23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="61"/>
+      <c r="E23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="63"/>
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="37" t="s">
+      <c r="D24" s="61"/>
+      <c r="E24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="63"/>
       <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="37" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="63"/>
       <c r="B26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="37" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="63"/>
       <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="37" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="63"/>
       <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="37" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="44">
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A30" s="29">
         <v>2</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="30"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="30"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="30"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="30"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="30"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="30"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="30"/>
       <c r="B37" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="30"/>
       <c r="B38" s="11"/>
       <c r="C38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="30"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="30"/>
       <c r="B40" s="11"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="30"/>
       <c r="B41" s="11"/>
       <c r="C41" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="58"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="31"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
-    </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="44">
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="40"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A43" s="29">
         <v>3</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
-      <c r="B44" s="55" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="30"/>
+      <c r="B44" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="55" t="s">
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="30"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="30"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="30"/>
+      <c r="B47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="55" t="s">
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="30"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="30"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="30"/>
+      <c r="B50" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="38"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-    </row>
-    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="44">
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="30"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="31"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A53" s="29">
         <v>4</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45" t="s">
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="38"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="C54:I63"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="A30:A42"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="D47:I49"/>
@@ -2307,32 +2325,14 @@
     <mergeCell ref="D44:I46"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="C37:I37"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="C54:I63"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A43:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2347,21 +2347,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.5234375" customWidth="1"/>
+    <col min="2" max="2" width="55.3125" customWidth="1"/>
+    <col min="3" max="3" width="25.89453125" customWidth="1"/>
+    <col min="4" max="4" width="26.7890625" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.41796875" customWidth="1"/>
+    <col min="7" max="7" width="24.3125" customWidth="1"/>
+    <col min="8" max="8" width="25.1015625" customWidth="1"/>
+    <col min="9" max="9" width="18.89453125" customWidth="1"/>
+    <col min="10" max="10" width="21.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="216" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2447,7 +2447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2467,7 +2467,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2483,7 +2483,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2499,7 +2499,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2515,7 +2515,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2531,7 +2531,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2547,7 +2547,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2563,7 +2563,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2579,7 +2579,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2591,7 +2591,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2603,13 +2603,13 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="6"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="6"/>
       <c r="J15" s="8"/>
     </row>
@@ -2622,24 +2622,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F85CACF-4790-4931-9075-36197B0BDD71}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.68359375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="10" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.89453125" customWidth="1"/>
+    <col min="4" max="4" width="24.68359375" customWidth="1"/>
+    <col min="5" max="5" width="28.3125" customWidth="1"/>
+    <col min="6" max="6" width="26.89453125" customWidth="1"/>
+    <col min="7" max="7" width="24.1015625" customWidth="1"/>
+    <col min="8" max="8" width="21.1015625" customWidth="1"/>
+    <col min="9" max="10" width="26.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="234.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="225.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2719,13 +2719,13 @@
         <v>83</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2741,7 +2741,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2757,7 +2757,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2773,7 +2773,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2789,7 +2789,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2805,7 +2805,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2821,7 +2821,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2837,7 +2837,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2853,7 +2853,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2864,12 +2864,12 @@
         <v>158</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2881,7 +2881,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -2898,22 +2898,22 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5234375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.20703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.20703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.1015625" style="2" customWidth="1"/>
     <col min="5" max="5" width="40" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5234375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.20703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.68359375" style="2" customWidth="1"/>
     <col min="9" max="9" width="29" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="29.3125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.89453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2999,7 +2999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3015,7 +3015,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3031,7 +3031,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3047,7 +3047,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3063,7 +3063,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3079,27 +3079,27 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="8"/>
     </row>
   </sheetData>
@@ -3116,21 +3116,21 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" customWidth="1"/>
+    <col min="2" max="2" width="68.7890625" customWidth="1"/>
+    <col min="3" max="3" width="16.1015625" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="38.3125" customWidth="1"/>
+    <col min="6" max="6" width="17.7890625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.5234375" customWidth="1"/>
+    <col min="9" max="9" width="18.7890625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3216,7 +3216,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3232,7 +3232,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3248,7 +3248,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3264,7 +3264,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="109.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3280,7 +3280,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3296,7 +3296,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3312,7 +3312,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3328,7 +3328,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3344,7 +3344,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3356,7 +3356,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3381,21 +3381,21 @@
       <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.20703125" customWidth="1"/>
+    <col min="2" max="2" width="53.89453125" customWidth="1"/>
+    <col min="3" max="3" width="28.3125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="34.21875" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.1015625" customWidth="1"/>
+    <col min="6" max="6" width="19.20703125" customWidth="1"/>
+    <col min="7" max="7" width="34.20703125" customWidth="1"/>
+    <col min="8" max="8" width="45.1015625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="207" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="207" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3481,7 +3481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3501,7 +3501,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3517,7 +3517,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3533,7 +3533,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3549,7 +3549,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3565,7 +3565,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3581,7 +3581,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3597,7 +3597,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3613,7 +3613,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3629,7 +3629,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3641,7 +3641,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -3655,25 +3655,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E612745-E32A-4DF6-8B6E-CDF906DFB81F}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="52.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" customWidth="1"/>
+    <col min="2" max="2" width="52.7890625" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" customWidth="1"/>
+    <col min="5" max="5" width="19.1015625" customWidth="1"/>
+    <col min="6" max="6" width="18.3125" customWidth="1"/>
+    <col min="7" max="7" width="28.41796875" customWidth="1"/>
+    <col min="8" max="8" width="39.41796875" customWidth="1"/>
+    <col min="9" max="9" width="29.5234375" customWidth="1"/>
+    <col min="10" max="10" width="26.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3759,7 +3759,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3777,7 +3777,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3793,7 +3793,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3809,7 +3809,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3825,7 +3825,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3841,7 +3841,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3857,7 +3857,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3873,7 +3873,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3889,7 +3889,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3900,12 +3900,12 @@
         <v>187</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3916,12 +3916,12 @@
         <v>195</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -3938,21 +3938,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.1015625" customWidth="1"/>
+    <col min="2" max="2" width="67.3125" customWidth="1"/>
+    <col min="3" max="3" width="39.7890625" customWidth="1"/>
+    <col min="4" max="4" width="39.89453125" customWidth="1"/>
+    <col min="5" max="5" width="32.41796875" customWidth="1"/>
+    <col min="6" max="6" width="26.1015625" customWidth="1"/>
+    <col min="7" max="7" width="28.20703125" customWidth="1"/>
+    <col min="8" max="8" width="30.1015625" customWidth="1"/>
+    <col min="9" max="9" width="24.68359375" customWidth="1"/>
+    <col min="10" max="10" width="23.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="187.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -4010,13 +4010,13 @@
         <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4032,13 +4032,13 @@
         <v>70</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4056,7 +4056,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4072,7 +4072,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4088,7 +4088,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4104,7 +4104,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4120,7 +4120,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4136,7 +4136,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4152,7 +4152,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4168,7 +4168,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4184,7 +4184,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4200,15 +4200,15 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="2" t="s">
         <v>106</v>
       </c>
@@ -4216,15 +4216,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" s="2" t="s">
         <v>108</v>
       </c>
@@ -4232,12 +4232,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="7:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4253,21 +4253,21 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="28.21875" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.68359375" customWidth="1"/>
+    <col min="2" max="2" width="49.20703125" customWidth="1"/>
+    <col min="3" max="3" width="31.20703125" customWidth="1"/>
+    <col min="4" max="4" width="31.1015625" customWidth="1"/>
+    <col min="5" max="5" width="22.68359375" customWidth="1"/>
+    <col min="6" max="6" width="23.7890625" customWidth="1"/>
+    <col min="7" max="7" width="19.7890625" customWidth="1"/>
+    <col min="8" max="8" width="23.41796875" customWidth="1"/>
+    <col min="9" max="9" width="28.20703125" customWidth="1"/>
+    <col min="10" max="10" width="32.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="141" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4350,10 +4350,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4369,7 +4369,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4385,7 +4385,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4401,7 +4401,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4417,7 +4417,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4433,7 +4433,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4449,7 +4449,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4465,7 +4465,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4481,7 +4481,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4497,7 +4497,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4508,12 +4508,12 @@
         <v>126</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -4530,21 +4530,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.68359375" customWidth="1"/>
+    <col min="2" max="2" width="63.5234375" customWidth="1"/>
+    <col min="3" max="3" width="33.3125" customWidth="1"/>
+    <col min="4" max="4" width="31.1015625" customWidth="1"/>
+    <col min="5" max="5" width="37.1015625" customWidth="1"/>
+    <col min="6" max="6" width="30.1015625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28.7890625" customWidth="1"/>
+    <col min="9" max="9" width="24.20703125" customWidth="1"/>
+    <col min="10" max="10" width="25.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="188.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="188.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4626,7 +4626,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4644,7 +4644,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4660,7 +4660,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4668,7 +4668,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>185</v>
@@ -4676,7 +4676,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4692,7 +4692,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4708,7 +4708,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4724,7 +4724,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4740,7 +4740,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4756,7 +4756,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4772,7 +4772,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4788,7 +4788,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2" t="s">
         <v>133</v>
       </c>
@@ -4796,23 +4796,23 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="2"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" s="2"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="2"/>
       <c r="H18" s="16"/>
     </row>
@@ -4829,21 +4829,21 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.89453125" customWidth="1"/>
+    <col min="2" max="2" width="50.68359375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7890625" customWidth="1"/>
+    <col min="5" max="5" width="23.5234375" customWidth="1"/>
+    <col min="6" max="6" width="24.5234375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.3125" customWidth="1"/>
+    <col min="9" max="9" width="22.41796875" customWidth="1"/>
+    <col min="10" max="10" width="23.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="221.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="221.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4925,7 +4925,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4943,7 +4943,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4959,7 +4959,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4975,7 +4975,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4991,7 +4991,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5007,7 +5007,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5023,7 +5023,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5039,7 +5039,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5055,7 +5055,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5071,7 +5071,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5087,7 +5087,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2" t="s">
         <v>146</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>

--- a/docs/source/docs/ATP/procedures.xlsx
+++ b/docs/source/docs/ATP/procedures.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A646E3E9-0681-44FC-A9EE-C10815A267A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641102F4-47A5-47F5-99DA-CFAC9FD31803}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="212">
   <si>
     <t>Title</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Operating System Acceptance Test</t>
   </si>
   <si>
-    <t>This acceptance test document verifies that the software system, Facile is functional on 64 Bit Windows 10 Home Version 1903.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required with the intended operating system. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
     <t>System Requirements Document, Rev B, 10/27/2019</t>
   </si>
   <si>
@@ -83,37 +80,22 @@
     <t>Select **System**</t>
   </si>
   <si>
-    <t>Scroll to **Device specifications,** and verify the System type, Edition, and Version</t>
-  </si>
-  <si>
     <t>Click on **Windows Search Bar**</t>
   </si>
   <si>
-    <t>Type cmd and press enter</t>
-  </si>
-  <si>
     <t>Click on the **Command Prompt**</t>
   </si>
   <si>
     <t>Type "python facile.py" in the **Command Prompt**</t>
   </si>
   <si>
-    <t>A context menu of items open up</t>
-  </si>
-  <si>
     <t>**Settings** is open</t>
   </si>
   <si>
     <t>Windows Search Bar comes into focus</t>
   </si>
   <si>
-    <t>A **Command Prompt** terminal opens</t>
-  </si>
-  <si>
     <t>The **Command Prompt** comes into focus</t>
-  </si>
-  <si>
-    <t>Facile should run. Test Case Completed.</t>
   </si>
   <si>
     <t>Acceptance Test Content Sheet</t>
@@ -265,30 +247,18 @@
 If you wish to put multiple paragraphs, do so within a single cell. You can achieve this by using ALT-Enter on your keyboard.</t>
   </si>
   <si>
-    <t>This acceptance test document verifies that the software system, Facile is functional while using a Python 3.7.4 interpreter.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required with the intended programming language. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
     <t>Click on the **Windows Search Bar**</t>
   </si>
   <si>
     <t>Type **cmd**</t>
   </si>
   <si>
-    <t>Click on the command prompt</t>
-  </si>
-  <si>
     <t>Type **python**</t>
   </si>
   <si>
-    <t>Navigate to the directory containing facile.py, then type "python facile.py" in the **Command line**</t>
-  </si>
-  <si>
     <t>**Windows Search Bar** comes into focus</t>
   </si>
   <si>
-    <t>The sindows **Command Prompt** opens</t>
-  </si>
-  <si>
     <t>Refer to @language_test_01.png</t>
   </si>
   <si>
@@ -325,291 +295,393 @@
     <t>Click on **Auto Explore** or **Manual Explore**</t>
   </si>
   <si>
-    <t>This acceptance test document verifies that the software system, Facile has a functional GUI that interacts with the user.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.
+    <t>**Windows Seach Bar** comes into focus.</t>
+  </si>
+  <si>
+    <t>A **Command Prompt** opens</t>
+  </si>
+  <si>
+    <t>Refer to @GUI_test_01.png</t>
+  </si>
+  <si>
+    <t>Refer to @GUI_test_02.png</t>
+  </si>
+  <si>
+    <t>**Target Application** will pop up.</t>
+  </si>
+  <si>
+    <t>A model of the target GUI is shown in the view. Test case is completed.</t>
+  </si>
+  <si>
+    <t>GUI_test_01.png</t>
+  </si>
+  <si>
+    <t>GUI_test_02.png</t>
+  </si>
+  <si>
+    <t>A snippit of the Facile software system that shows the menu path to create a new project from scratch.</t>
+  </si>
+  <si>
+    <t>A snippit of the Facile project creation dialog. This dialog allows the user to specify some basic information abou the project and application they wish to control.</t>
+  </si>
+  <si>
+    <t>Target GUI Component Identifier Acceptance Test</t>
+  </si>
+  <si>
+    <t>A Facile project has already been created.</t>
+  </si>
+  <si>
+    <t>Type **cmd** and press enter</t>
+  </si>
+  <si>
+    <t>Click on **File** in the menu.</t>
+  </si>
+  <si>
+    <t>Click on **Recent Projects**</t>
+  </si>
+  <si>
+    <t>Click on a recent project that you created previously.</t>
+  </si>
+  <si>
+    <t>See @TGUICI_test_01.png</t>
+  </si>
+  <si>
+    <t>TGUICI_test_01.png</t>
+  </si>
+  <si>
+    <t>A snippit of the Facile software system that shows the menu path to open an existing project.</t>
+  </si>
+  <si>
+    <t>Target GUI Behavior Mapper Acceptance Test</t>
+  </si>
+  <si>
+    <t>Click on the same button that you clicked on in the previous step.</t>
+  </si>
+  <si>
+    <t>Click on **Add Behavior**</t>
+  </si>
+  <si>
+    <t>Click on 2 highlighted components that are shown in the view.</t>
+  </si>
+  <si>
+    <t>Select the new visibility behavior in the **project explorer**.</t>
+  </si>
+  <si>
+    <t>Double click on the right column of the Reaction Type property.</t>
+  </si>
+  <si>
+    <t>Click on **Shows** or **Hides**</t>
+  </si>
+  <si>
+    <t>Select any behavior in the **Project Explorer**</t>
+  </si>
+  <si>
+    <t>The properties for the selected visibility behavior will be shown in the Properties editor.</t>
+  </si>
+  <si>
+    <t>Reaction Type property is altered</t>
+  </si>
+  <si>
+    <t>To verify SR4.2.4 - Facile source code shall be compatible with the Python 3.7.4 interpreter.</t>
+  </si>
+  <si>
+    <t>To verify SR4.3.1 - Facile shall contain a GUI that interacts with the user to produce custom APIs that control the target GUI.</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.1 - The Facile GUI shall contain a view that allows users to identify components from the target GUI.</t>
+  </si>
+  <si>
+    <t>Context menu of items will be shown</t>
+  </si>
+  <si>
+    <t>Context menu of recent projects will be shown.</t>
+  </si>
+  <si>
+    <t>The selected project will be opened.</t>
+  </si>
+  <si>
+    <t>**Target Application** will open</t>
+  </si>
+  <si>
+    <t>GUI is shown in the view with the selected component highlighted in red.</t>
+  </si>
+  <si>
+    <t>**Observer** (and **Explorer**) will stop running.</t>
+  </si>
+  <si>
+    <t>Facile will enter the **ADD_VB** state and wait for the user to select 2 components.</t>
+  </si>
+  <si>
+    <t>Project Overview Sidebar Acceptance Test</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.3 - The system shall contain a view that shows all model components of the API project.</t>
+  </si>
+  <si>
+    <t>Project is saved with the *.fcl* extension in the selected folder. Refer to @GUI_test_02.png</t>
+  </si>
+  <si>
+    <t>A model of the target GUI is shown in the view.</t>
+  </si>
+  <si>
+    <t>In the left sidebar, expand **Project**, then expand **GUI Components**</t>
+  </si>
+  <si>
+    <t>Property Editor Panel Acceptance Test</t>
+  </si>
+  <si>
+    <t>To verify SRR 4.3.1.4 - The system shall contain a view that allows the user to edit specific properties for any model components in the project.</t>
+  </si>
+  <si>
+    <t>Click on a component in the **Target GUI Model Graphics View**</t>
+  </si>
+  <si>
+    <t>Highlighted component will have its properties shown in the **Property Editor** view.</t>
+  </si>
+  <si>
+    <t>Click on a property in the **Property Editor** view</t>
+  </si>
+  <si>
+    <t>The property will come into focus. Refer to @property_test_01.png</t>
+  </si>
+  <si>
+    <t>Edit the property value (If editable)</t>
+  </si>
+  <si>
+    <t>property_test_01.png</t>
+  </si>
+  <si>
+    <t>Shows the Facile software with the *Name* property selected. The *Name* property is always editable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of the property is edited. </t>
+  </si>
+  <si>
+    <t>Select a different component and then select the one that had the *Name* property changed.</t>
+  </si>
+  <si>
+    <t>Project Settings Dialog Acceptance Test</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.5 - The Facile GUI shall contain a dialog that allows the user to edit project settings.</t>
+  </si>
+  <si>
+    <t>Click on **File** again</t>
+  </si>
+  <si>
+    <t>Click on **Project Settings**</t>
+  </si>
+  <si>
+    <t>Refer to @settings_test_01.png</t>
+  </si>
+  <si>
+    <t>Edit any project setting and click on **Save**</t>
+  </si>
+  <si>
+    <t>Project setting is edited and saved.</t>
+  </si>
+  <si>
+    <t>Close the project settings dialog.</t>
+  </si>
+  <si>
+    <t>Open the project settings dialog again.</t>
+  </si>
+  <si>
+    <t>The project settings dialog is closed.</t>
+  </si>
+  <si>
+    <t>The updated values should show. Test case is completed.</t>
+  </si>
+  <si>
+    <t>settings_test_01.png</t>
+  </si>
+  <si>
+    <t>Shows the Project Settings dialog.</t>
+  </si>
+  <si>
+    <t>Project File Extension Acceptance Test</t>
+  </si>
+  <si>
+    <t>In the Windows taskbar, click on **File Explorer** and navigate to your project folder.</t>
+  </si>
+  <si>
+    <t>A variety of files are shown. The main file is the name of your project with the *.fcl* extension. Refer to @extension_test_01.png</t>
+  </si>
+  <si>
+    <t>extension_test_01.png</t>
+  </si>
+  <si>
+    <t>Shows the files in your project. The filenames in your project may differ, but the extensions should remain the same.</t>
+  </si>
+  <si>
+    <t>Project File Format Acceptance Test</t>
+  </si>
+  <si>
+    <t>To verify SR 4.6.4 - Facile project files shall be in a human-readable format such as JSON.</t>
+  </si>
+  <si>
+    <t>Right click on the project file (*.fcl* extension) and select **Open with**. Select a text editor to open the file with.</t>
+  </si>
+  <si>
+    <t>To verify SSR 4.3.1.2 The Facile GUI shall contain a view that allows user to specify 'Show/Hide' relation between two components.</t>
+  </si>
+  <si>
+    <t>OS_test_02.png</t>
+  </si>
+  <si>
+    <t>Refer to @OS_test_02.png</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile is functional on 64 Bit Windows 10 Home Version 1903.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required with the intended operating system. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile is functional while using a Python 3.7.4 interpreter.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required with the intended programming language. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile has a functional GUI that interacts with the user.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.
 .. note::
     The requirement that this test case is verifying is not completed yet because sub-system and sub-assembly requirements must first be completed.</t>
   </si>
   <si>
-    <t>**Windows Seach Bar** comes into focus.</t>
-  </si>
-  <si>
-    <t>A **Command Prompt** opens</t>
-  </si>
-  <si>
-    <t>Facile should run.</t>
-  </si>
-  <si>
-    <t>Refer to @GUI_test_01.png</t>
-  </si>
-  <si>
-    <t>Refer to @GUI_test_02.png</t>
-  </si>
-  <si>
-    <t>**Target Application** will pop up.</t>
-  </si>
-  <si>
-    <t>A model of the target GUI is shown in the view. Test case is completed.</t>
-  </si>
-  <si>
-    <t>GUI_test_01.png</t>
-  </si>
-  <si>
-    <t>GUI_test_02.png</t>
-  </si>
-  <si>
-    <t>A snippit of the Facile software system that shows the menu path to create a new project from scratch.</t>
-  </si>
-  <si>
-    <t>A snippit of the Facile project creation dialog. This dialog allows the user to specify some basic information abou the project and application they wish to control.</t>
-  </si>
-  <si>
-    <t>Target GUI Component Identifier Acceptance Test</t>
-  </si>
-  <si>
-    <t>This acceptance test document verifies that the software system, Facile has a view that will allow the user to identify components of a target GUI.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the target GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
-    <t>A Facile project has already been created.</t>
-  </si>
-  <si>
-    <t>Type **cmd** and press enter</t>
-  </si>
-  <si>
-    <t>Click on **File** in the menu.</t>
-  </si>
-  <si>
-    <t>Click on **Recent Projects**</t>
-  </si>
-  <si>
-    <t>Click on a recent project that you created previously.</t>
-  </si>
-  <si>
-    <t>See @TGUICI_test_01.png</t>
-  </si>
-  <si>
-    <t>**Target Application** will run.</t>
-  </si>
-  <si>
-    <t>GUI is shown in the view with components highlighted in red. Test case is completed.</t>
-  </si>
-  <si>
-    <t>TGUICI_test_01.png</t>
-  </si>
-  <si>
-    <t>A snippit of the Facile software system that shows the menu path to open an existing project.</t>
-  </si>
-  <si>
-    <t>Target GUI Behavior Mapper Acceptance Test</t>
-  </si>
-  <si>
-    <t>Click on the same button that you clicked on in the previous step.</t>
-  </si>
-  <si>
-    <t>Click on **Add Behavior**</t>
-  </si>
-  <si>
-    <t>Click on 2 highlighted components that are shown in the view.</t>
-  </si>
-  <si>
-    <t>Select the new visibility behavior in the **project explorer**.</t>
-  </si>
-  <si>
-    <t>Double click on the right column of the Reaction Type property.</t>
-  </si>
-  <si>
-    <t>Click on **Shows** or **Hides**</t>
-  </si>
-  <si>
-    <t>Select any behavior in the **Project Explorer**</t>
-  </si>
-  <si>
-    <t>an arrow will be drawn going from the first component to the second component.</t>
-  </si>
-  <si>
-    <t>The properties for the selected visibility behavior will be shown in the Properties editor.</t>
-  </si>
-  <si>
-    <t>Options of **Show** or **Hide** will appear in the dropdown menu.</t>
-  </si>
-  <si>
-    <t>Reaction Type property is altered</t>
-  </si>
-  <si>
-    <t>Reaction Type property iis changed in the **Project Explorer**. Test case is completed.</t>
-  </si>
-  <si>
-    <t>To verify SR4.2.4 - Facile source code shall be compatible with the Python 3.7.4 interpreter.</t>
-  </si>
-  <si>
-    <t>To verify SR4.3.1 - Facile shall contain a GUI that interacts with the user to produce custom APIs that control the target GUI.</t>
-  </si>
-  <si>
-    <t>To verify SSR 4.3.1.1 - The Facile GUI shall contain a view that allows users to identify components from the target GUI.</t>
-  </si>
-  <si>
-    <t>Context menu of items will be shown</t>
-  </si>
-  <si>
-    <t>Context menu of recent projects will be shown.</t>
-  </si>
-  <si>
-    <t>The selected project will be opened.</t>
-  </si>
-  <si>
-    <t>**Target Application** will open</t>
-  </si>
-  <si>
-    <t>GUI is shown in the view with the selected component highlighted in red.</t>
-  </si>
-  <si>
-    <t>**Observer** (and **Explorer**) will stop running.</t>
-  </si>
-  <si>
-    <t>Facile will enter the **ADD_VB** state and wait for the user to select 2 components.</t>
-  </si>
-  <si>
-    <t>Project Overview Sidebar Acceptance Test</t>
-  </si>
-  <si>
-    <t>This acceptance test document verifies that the software system, Facile has a GUI, that will have a view of all model components of the API project.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
-    <t>To verify SSR 4.3.1.3 - The system shall contain a view that shows all model components of the API project.</t>
-  </si>
-  <si>
-    <t>Project is saved with the *.fcl* extension in the selected folder. Refer to @GUI_test_02.png</t>
-  </si>
-  <si>
-    <t>A model of the target GUI is shown in the view.</t>
-  </si>
-  <si>
-    <t>In the left sidebar, expand **Project**, then expand **GUI Components**</t>
-  </si>
-  <si>
-    <t>All of the GUI Components that make up the project are shown as a hierarchical view in the project explorer.</t>
-  </si>
-  <si>
-    <t>Property Editor Panel Acceptance Test</t>
-  </si>
-  <si>
-    <t>This acceptance test document verifies that the software system, Facile has a functional GUI that shall contain a view that allows the user to edit specific properties. The properties will be for any model components of the project that are selected by the user.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
-    <t>To verify SRR 4.3.1.4 - The system shall contain a view that allows the user to edit specific properties for any model components in the project.</t>
-  </si>
-  <si>
-    <t>Click on a component in the **Target GUI Model Graphics View**</t>
-  </si>
-  <si>
-    <t>Highlighted component will have its properties shown in the **Property Editor** view.</t>
-  </si>
-  <si>
-    <t>Click on a property in the **Property Editor** view</t>
-  </si>
-  <si>
-    <t>The property will come into focus. Refer to @property_test_01.png</t>
-  </si>
-  <si>
-    <t>Edit the property value (If editable)</t>
-  </si>
-  <si>
-    <t>property_test_01.png</t>
-  </si>
-  <si>
-    <t>Shows the Facile software with the *Name* property selected. The *Name* property is always editable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value of the property is edited. </t>
-  </si>
-  <si>
-    <t>Select a different component and then select the one that had the *Name* property changed.</t>
-  </si>
-  <si>
-    <t>The *Name* of the component has been updated in the **Project Explorer**. Test is complete</t>
-  </si>
-  <si>
-    <t>Project Settings Dialog Acceptance Test</t>
-  </si>
-  <si>
-    <t>This acceptance test document verifies that the software system, Facile has a functional GUI that contains a dialog that will allow the user to edit the setting of a specified project.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
-    <t>To verify SSR 4.3.1.5 - The Facile GUI shall contain a dialog that allows the user to edit project settings.</t>
-  </si>
-  <si>
-    <t>Click on **File** again</t>
-  </si>
-  <si>
-    <t>Click on **Project Settings**</t>
-  </si>
-  <si>
-    <t>Refer to @settings_test_01.png</t>
-  </si>
-  <si>
-    <t>Edit any project setting and click on **Save**</t>
-  </si>
-  <si>
-    <t>Project setting is edited and saved.</t>
-  </si>
-  <si>
-    <t>Close the project settings dialog.</t>
-  </si>
-  <si>
-    <t>Open the project settings dialog again.</t>
-  </si>
-  <si>
-    <t>The project settings dialog is closed.</t>
-  </si>
-  <si>
-    <t>The updated values should show. Test case is completed.</t>
-  </si>
-  <si>
-    <t>settings_test_01.png</t>
-  </si>
-  <si>
-    <t>Shows the Project Settings dialog.</t>
-  </si>
-  <si>
-    <t>Project File Extension Acceptance Test</t>
-  </si>
-  <si>
-    <t>This acceptance test document verifies that the software system, Facile will have its project files saved with a .fcl extension.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
-    <t>In the Windows taskbar, click on **File Explorer** and navigate to your project folder.</t>
-  </si>
-  <si>
-    <t>A variety of files are shown. The main file is the name of your project with the *.fcl* extension. Refer to @extension_test_01.png</t>
-  </si>
-  <si>
-    <t>extension_test_01.png</t>
-  </si>
-  <si>
-    <t>Shows the files in your project. The filenames in your project may differ, but the extensions should remain the same.</t>
-  </si>
-  <si>
-    <t>Project File Format Acceptance Test</t>
-  </si>
-  <si>
-    <t>This acceptance test document verifies that the software system, Facile will have project files than be in a human-readable format such as JSON.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
-  </si>
-  <si>
-    <t>To verify SR 4.6.4 - Facile project files shall be in a human-readable format such as JSON.</t>
-  </si>
-  <si>
-    <t>Right click on the project file (*.fcl* extension) and select **Open with**. Select a text editor to open the file with.</t>
-  </si>
-  <si>
-    <t>The content of the Project file is shown in human-readable format in the chosen text editor. Test case completed.</t>
-  </si>
-  <si>
-    <t>Verify that the *Python 3.7.4* and *32-bit* exist in the resulting text from the previous step.</t>
-  </si>
-  <si>
-    <t>To verify SSR 4.3.1.2 The Facile GUI shall contain a view that allows user to specify 'Show/Hide' relation between two components.</t>
-  </si>
-  <si>
-    <t>This acceptance test document verifies that the software system, Facile has a GUI that contains a view that allows the users to specify 'Show/Hide' for relation between two components.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+    <t>This acceptance test verifies that the software system, Facile has a view that will allow the user to identify components of a target GUI.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the target GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile has a GUI that contains a view that allows the users to specify 'Show/Hide' for relation between two components.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile has a GUI, that will have a view of all model components of the API project.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile has a functional GUI that shall contain a view that allows the user to edit specific properties. The properties will be for any model components of the project that are selected by the user.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile has a functional GUI that contains a dialog that will allow the user to edit the setting of a specified project.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile will have its project files saved with a .fcl extension.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required in the GUI. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>This acceptance test verifies that the software system, Facile will have project files than be in a human-readable format such as JSON.  This acceptance test establishes the framework used by the acceptance test team to plan, execute, and document acceptance testing.  It describes the scope of the work performed and the approach taken to execute the tests created to validate that the system performs as required. The details of this acceptance test are developed according to the requirements specifications and show traceability back to those specifications.</t>
+  </si>
+  <si>
+    <t>Scroll to **Device specifications**, and verify the System type, Edition, and Version</t>
+  </si>
+  <si>
+    <t>Type **cmd** and press **Enter**</t>
+  </si>
+  <si>
+    <t>The **Command Prompt** opens</t>
+  </si>
+  <si>
+    <t>Verify that the **Python 3.7.4** and **32 bit** exist in the resulting text from the previous step.</t>
+  </si>
+  <si>
+    <t>language_test_02.png</t>
+  </si>
+  <si>
+    <t>Refer to @language_test_02.png</t>
+  </si>
+  <si>
+    <t>Navigate to the directory containing the **facile** folder with faciles source code</t>
+  </si>
+  <si>
+    <t>Type **python facile.py** in the **Command Prompot**</t>
+  </si>
+  <si>
+    <t>Drop box menu from the Explorer with a list of options</t>
+  </si>
+  <si>
+    <t>A picture of the directory that contains facile.</t>
+  </si>
+  <si>
+    <t>**Facile** should run. Test case is completed.</t>
+  </si>
+  <si>
+    <t>**Facile** should run. Test Case Completed.</t>
+  </si>
+  <si>
+    <t>Type **python facile.py** in the **Command Prompt**</t>
+  </si>
+  <si>
+    <t>**Facile** should run.</t>
+  </si>
+  <si>
+    <t>**Facile** directory is open</t>
+  </si>
+  <si>
+    <t>Click on any component of the **Target GUI*</t>
+  </si>
+  <si>
+    <t>**Target GUI** is shown in the view with components highlighted in red.</t>
+  </si>
+  <si>
+    <t>**Target Application** will run</t>
+  </si>
+  <si>
+    <t>GUI_test_03.png</t>
+  </si>
+  <si>
+    <t>A snippit of the Target Application being used for testing. In this case, it's the Notepad application.</t>
+  </si>
+  <si>
+    <t>Refer to @GUI_test_03.png</t>
+  </si>
+  <si>
+    <t>TGUICI_test_02.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A snippit of Target Application's, Notepad, Target GUI with a selected component highlighted in red. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe the **Project Explorer** view and **Property Editor** view on the left of the Target GUI view. </t>
+  </si>
+  <si>
+    <t>Selected component of the **Target GUI**, it's properties, and its behavior are now shown in views. Test case is completed.</t>
+  </si>
+  <si>
+    <t>TGUIBM_test_01.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A snippet of an arrow from the first component to the second component of the Target GUI. </t>
+  </si>
+  <si>
+    <t>Refer to @TGUIBM_test_01.png</t>
+  </si>
+  <si>
+    <t>Reaction Type property is changed in the **Project Explorer**. Test case is completed.</t>
+  </si>
+  <si>
+    <t>TGUIBM_test_02.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A snippet of the options of Show or Hide in the dropdown menu. </t>
+  </si>
+  <si>
+    <t>Refer to @TGUIBM_test_02.png</t>
+  </si>
+  <si>
+    <t>All of the GUI Components that make up the project are shown as a hierarchical view in the project explorer.Test case is completed.</t>
+  </si>
+  <si>
+    <t>The *Name* of the component has been updated in the **Project Explorer**. Test is complete.</t>
+  </si>
+  <si>
+    <t>Type**python facile.py** in the **Command Prompt**</t>
+  </si>
+  <si>
+    <t>PPF_test_01.png</t>
+  </si>
+  <si>
+    <t>The content of the Project file is shown in human-readable format in the chosen text editor. In this case, we chose to use Notepad.</t>
+  </si>
+  <si>
+    <t>Refer to @PPF_test_01.png Test case completed.</t>
+  </si>
+  <si>
+    <t>A snippit of the Facile project creation dialog. This dialog allows the user to specify some basic information about the project and application they wish to control.</t>
+  </si>
+  <si>
+    <t>See @TGUICI_test_02.png .</t>
   </si>
 </sst>
 </file>
@@ -1043,59 +1115,59 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1388,136 +1460,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAD1217-8B4A-4FAD-B4A9-6A7FF2C87FBC}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="3.26171875" customWidth="1"/>
-    <col min="3" max="3" width="13.05078125" customWidth="1"/>
-    <col min="4" max="4" width="15.83984375" customWidth="1"/>
+    <col min="2" max="2" width="3.20703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.89453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A10" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="A10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -1609,28 +1681,28 @@
       <c r="A19" s="62">
         <v>1</v>
       </c>
-      <c r="B19" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
+      <c r="B19" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" ht="20.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="63"/>
       <c r="B20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -1640,14 +1712,14 @@
     <row r="21" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="63"/>
       <c r="B21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -1657,14 +1729,14 @@
     <row r="22" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="63"/>
       <c r="B22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -1674,14 +1746,14 @@
     <row r="23" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="63"/>
       <c r="B23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -1691,14 +1763,14 @@
     <row r="24" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="63"/>
       <c r="B24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -1708,14 +1780,14 @@
     <row r="25" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="63"/>
       <c r="B25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -1725,14 +1797,14 @@
     <row r="26" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="63"/>
       <c r="B26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -1742,14 +1814,14 @@
     <row r="27" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="63"/>
       <c r="B27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -1759,43 +1831,43 @@
     <row r="28" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="63"/>
       <c r="B28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="45"/>
+        <v>39</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="61"/>
       <c r="E28" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
+        <v>50</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="45"/>
+        <v>41</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="61"/>
       <c r="E29" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
+        <v>51</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
     </row>
     <row r="30" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="29">
         <v>2</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1809,7 +1881,7 @@
       <c r="A31" s="30"/>
       <c r="B31" s="9"/>
       <c r="C31" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -1876,10 +1948,10 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="30"/>
       <c r="B37" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -1892,10 +1964,10 @@
       <c r="A38" s="30"/>
       <c r="B38" s="11"/>
       <c r="C38" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -1929,10 +2001,10 @@
       <c r="A41" s="30"/>
       <c r="B41" s="11"/>
       <c r="C41" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
@@ -1956,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -1969,13 +2041,13 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="30"/>
       <c r="B44" s="32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -2008,13 +2080,13 @@
     <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="30"/>
       <c r="B47" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -2047,13 +2119,13 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="30"/>
       <c r="B50" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -2088,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -2101,10 +2173,10 @@
     <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="30"/>
       <c r="B54" s="30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -2219,13 +2291,17 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A19:A29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A11:I18"/>
     <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="E22:I22"/>
@@ -2236,10 +2312,6 @@
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A30:A42"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="D47:I49"/>
@@ -2269,24 +2341,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B5E574-C0A0-410C-BD01-0D5765B42B4A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="39.5234375" customWidth="1"/>
     <col min="2" max="2" width="55.3125" customWidth="1"/>
-    <col min="3" max="3" width="25.83984375" customWidth="1"/>
-    <col min="4" max="4" width="26.734375" customWidth="1"/>
-    <col min="5" max="5" width="33.05078125" customWidth="1"/>
+    <col min="3" max="3" width="25.89453125" customWidth="1"/>
+    <col min="4" max="4" width="26.7890625" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="32.41796875" customWidth="1"/>
-    <col min="7" max="7" width="24.3671875" customWidth="1"/>
-    <col min="8" max="8" width="25.15625" customWidth="1"/>
-    <col min="9" max="9" width="18.83984375" customWidth="1"/>
-    <col min="10" max="10" width="21.62890625" customWidth="1"/>
+    <col min="7" max="7" width="24.3125" customWidth="1"/>
+    <col min="8" max="8" width="25.1015625" customWidth="1"/>
+    <col min="9" max="9" width="18.89453125" customWidth="1"/>
+    <col min="10" max="10" width="21.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
@@ -2315,63 +2387,67 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="216" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2379,13 +2455,17 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
@@ -2395,15 +2475,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2411,10 +2491,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
@@ -2427,10 +2507,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
@@ -2443,31 +2523,31 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>90</v>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2475,23 +2555,27 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>177</v>
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
@@ -2519,6 +2603,16 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="6"/>
+      <c r="J15" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2526,18 +2620,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F85CACF-4790-4931-9075-36197B0BDD71}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.68359375" customWidth="1"/>
-    <col min="2" max="2" width="30.9453125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="29.89453125" customWidth="1"/>
-    <col min="4" max="4" width="24.62890625" customWidth="1"/>
+    <col min="4" max="4" width="24.68359375" customWidth="1"/>
     <col min="5" max="5" width="28.3125" customWidth="1"/>
     <col min="6" max="6" width="26.89453125" customWidth="1"/>
     <col min="7" max="7" width="24.1015625" customWidth="1"/>
@@ -2571,61 +2665,556 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="239.7" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="225.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.5234375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.20703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.20703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.1015625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5234375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.20703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.68359375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.3125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.89453125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA8D0F-FA1A-48F3-B60B-00BC5DF66123}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.3125" customWidth="1"/>
+    <col min="2" max="2" width="68.7890625" customWidth="1"/>
+    <col min="3" max="3" width="16.1015625" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" customWidth="1"/>
+    <col min="5" max="5" width="38.3125" customWidth="1"/>
+    <col min="6" max="6" width="17.7890625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="19.5234375" customWidth="1"/>
+    <col min="9" max="9" width="18.7890625" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
@@ -2635,10 +3224,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
@@ -2651,15 +3240,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2667,15 +3256,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="109.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2683,15 +3272,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2699,15 +3288,15 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2715,15 +3304,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>68</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2731,15 +3320,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2747,10 +3336,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
@@ -2784,30 +3373,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B71E50-493D-4640-A992-202C8A3B64C0}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.5234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.26171875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.20703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.1015625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.9453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.20703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.62890625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.05078125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.3125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.83984375" style="2"/>
+    <col min="1" max="1" width="18.20703125" customWidth="1"/>
+    <col min="2" max="2" width="53.89453125" customWidth="1"/>
+    <col min="3" max="3" width="28.3125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="21.1015625" customWidth="1"/>
+    <col min="6" max="6" width="19.20703125" customWidth="1"/>
+    <col min="7" max="7" width="34.20703125" customWidth="1"/>
+    <col min="8" max="8" width="45.1015625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="22.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2833,63 +3421,67 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="207" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2897,15 +3489,19 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2913,15 +3509,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2929,15 +3525,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2945,15 +3541,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2961,220 +3557,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I14" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA8D0F-FA1A-48F3-B60B-00BC5DF66123}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.3671875" customWidth="1"/>
-    <col min="2" max="2" width="68.734375" customWidth="1"/>
-    <col min="3" max="3" width="16.1015625" customWidth="1"/>
-    <col min="4" max="4" width="19.26171875" customWidth="1"/>
-    <col min="5" max="5" width="38.3125" customWidth="1"/>
-    <col min="6" max="6" width="17.7890625" customWidth="1"/>
-    <col min="7" max="7" width="25.9453125" customWidth="1"/>
-    <col min="8" max="8" width="19.5234375" customWidth="1"/>
-    <col min="9" max="9" width="12.15625" customWidth="1"/>
-    <col min="10" max="10" width="22.9453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="93" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>85</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
@@ -3185,20 +3572,28 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
@@ -3209,20 +3604,28 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
@@ -3238,34 +3641,39 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B71E50-493D-4640-A992-202C8A3B64C0}">
-  <dimension ref="A1:J13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E612745-E32A-4DF6-8B6E-CDF906DFB81F}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G2:H11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.20703125" customWidth="1"/>
-    <col min="2" max="2" width="53.89453125" customWidth="1"/>
-    <col min="3" max="3" width="28.3125" customWidth="1"/>
-    <col min="4" max="4" width="22.9453125" customWidth="1"/>
-    <col min="5" max="5" width="21.1015625" customWidth="1"/>
-    <col min="6" max="6" width="19.26171875" customWidth="1"/>
-    <col min="7" max="7" width="34.26171875" customWidth="1"/>
-    <col min="8" max="8" width="45.15625" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="22.3125" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" customWidth="1"/>
+    <col min="2" max="2" width="52.7890625" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" customWidth="1"/>
+    <col min="5" max="5" width="19.1015625" customWidth="1"/>
+    <col min="6" max="6" width="18.3125" customWidth="1"/>
+    <col min="7" max="7" width="28.41796875" customWidth="1"/>
+    <col min="8" max="8" width="39.41796875" customWidth="1"/>
+    <col min="9" max="9" width="29.5234375" customWidth="1"/>
+    <col min="10" max="10" width="26.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="74.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3291,64 +3699,658 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="207" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>131</v>
+      <c r="E2" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FACE536-9F56-44F1-B9C1-D7AFBBB4D88C}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="32.1015625" customWidth="1"/>
+    <col min="2" max="2" width="67.3125" customWidth="1"/>
+    <col min="3" max="3" width="39.7890625" customWidth="1"/>
+    <col min="4" max="4" width="39.89453125" customWidth="1"/>
+    <col min="5" max="5" width="32.41796875" customWidth="1"/>
+    <col min="6" max="6" width="26.1015625" customWidth="1"/>
+    <col min="7" max="7" width="28.20703125" customWidth="1"/>
+    <col min="8" max="8" width="30.1015625" customWidth="1"/>
+    <col min="9" max="9" width="24.68359375" customWidth="1"/>
+    <col min="10" max="10" width="23.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="187.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B8225-13D8-4953-92D6-8112B577B21E}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="29.68359375" customWidth="1"/>
+    <col min="2" max="2" width="49.20703125" customWidth="1"/>
+    <col min="3" max="3" width="31.20703125" customWidth="1"/>
+    <col min="4" max="4" width="31.1015625" customWidth="1"/>
+    <col min="5" max="5" width="22.68359375" customWidth="1"/>
+    <col min="6" max="6" width="23.7890625" customWidth="1"/>
+    <col min="7" max="7" width="19.7890625" customWidth="1"/>
+    <col min="8" max="8" width="23.41796875" customWidth="1"/>
+    <col min="9" max="9" width="28.20703125" customWidth="1"/>
+    <col min="10" max="10" width="32.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="141" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3359,10 +4361,285 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83044C7C-9E56-4B9C-9D9C-01FE54DD804F}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="37.68359375" customWidth="1"/>
+    <col min="2" max="2" width="63.5234375" customWidth="1"/>
+    <col min="3" max="3" width="33.3125" customWidth="1"/>
+    <col min="4" max="4" width="31.1015625" customWidth="1"/>
+    <col min="5" max="5" width="37.1015625" customWidth="1"/>
+    <col min="6" max="6" width="30.1015625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="28.7890625" customWidth="1"/>
+    <col min="9" max="9" width="24.20703125" customWidth="1"/>
+    <col min="10" max="10" width="25.89453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="188.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
@@ -3375,15 +4652,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="21.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3391,15 +4668,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3407,15 +4684,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3423,31 +4700,31 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>90</v>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3455,15 +4732,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3471,66 +4748,102 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="2"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="2"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="2"/>
+      <c r="H18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E612745-E32A-4DF6-8B6E-CDF906DFB81F}">
-  <dimension ref="A1:J13"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB7A820-7995-470D-BE20-79FB7431179A}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.62890625" customWidth="1"/>
-    <col min="2" max="2" width="52.7890625" customWidth="1"/>
-    <col min="3" max="3" width="18.3125" customWidth="1"/>
-    <col min="4" max="4" width="16.89453125" customWidth="1"/>
-    <col min="5" max="5" width="19.1015625" customWidth="1"/>
-    <col min="6" max="6" width="18.3125" customWidth="1"/>
-    <col min="7" max="7" width="28.47265625" customWidth="1"/>
-    <col min="8" max="8" width="39.41796875" customWidth="1"/>
-    <col min="9" max="9" width="29.5234375" customWidth="1"/>
-    <col min="10" max="10" width="26.20703125" customWidth="1"/>
+    <col min="1" max="1" width="30.89453125" customWidth="1"/>
+    <col min="2" max="2" width="50.68359375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="24.7890625" customWidth="1"/>
+    <col min="5" max="5" width="23.5234375" customWidth="1"/>
+    <col min="6" max="6" width="24.5234375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="24.3125" customWidth="1"/>
+    <col min="9" max="9" width="22.41796875" customWidth="1"/>
+    <col min="10" max="10" width="23.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="55.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3556,76 +4869,76 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="221.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>132</v>
+      <c r="E2" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="8"/>
@@ -3638,10 +4951,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="8"/>
@@ -3654,15 +4967,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3670,10 +4983,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8"/>
@@ -3686,31 +4999,31 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>113</v>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3718,270 +5031,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FACE536-9F56-44F1-B9C1-D7AFBBB4D88C}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="32.15625" customWidth="1"/>
-    <col min="2" max="2" width="67.3125" customWidth="1"/>
-    <col min="3" max="3" width="39.7890625" customWidth="1"/>
-    <col min="4" max="4" width="39.89453125" customWidth="1"/>
-    <col min="5" max="5" width="32.41796875" customWidth="1"/>
-    <col min="6" max="6" width="26.1015625" customWidth="1"/>
-    <col min="7" max="7" width="28.20703125" customWidth="1"/>
-    <col min="8" max="8" width="30.15625" customWidth="1"/>
-    <col min="9" max="9" width="24.62890625" customWidth="1"/>
-    <col min="10" max="10" width="23.734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="187.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3989,578 +5047,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="G14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B8225-13D8-4953-92D6-8112B577B21E}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="29.62890625" customWidth="1"/>
-    <col min="2" max="2" width="49.26171875" customWidth="1"/>
-    <col min="3" max="3" width="31.20703125" customWidth="1"/>
-    <col min="4" max="4" width="31.1015625" customWidth="1"/>
-    <col min="5" max="5" width="22.68359375" customWidth="1"/>
-    <col min="6" max="6" width="23.734375" customWidth="1"/>
-    <col min="7" max="7" width="19.7890625" customWidth="1"/>
-    <col min="8" max="8" width="23.47265625" customWidth="1"/>
-    <col min="9" max="9" width="28.20703125" customWidth="1"/>
-    <col min="10" max="10" width="32.578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="155.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83044C7C-9E56-4B9C-9D9C-01FE54DD804F}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="37.68359375" customWidth="1"/>
-    <col min="2" max="2" width="63.578125" customWidth="1"/>
-    <col min="3" max="3" width="33.3125" customWidth="1"/>
-    <col min="4" max="4" width="31.1015625" customWidth="1"/>
-    <col min="5" max="5" width="37.15625" customWidth="1"/>
-    <col min="6" max="6" width="30.15625" customWidth="1"/>
-    <col min="7" max="7" width="30.05078125" customWidth="1"/>
-    <col min="8" max="8" width="28.734375" customWidth="1"/>
-    <col min="9" max="9" width="24.26171875" customWidth="1"/>
-    <col min="10" max="10" width="25.83984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="188.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
@@ -4573,10 +5063,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
@@ -4589,308 +5079,25 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" s="2"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="2"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="2"/>
-      <c r="H17" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB7A820-7995-470D-BE20-79FB7431179A}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="2" width="50.68359375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="24.7890625" customWidth="1"/>
-    <col min="5" max="5" width="23.578125" customWidth="1"/>
-    <col min="6" max="6" width="24.5234375" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="24.3671875" customWidth="1"/>
-    <col min="9" max="9" width="22.41796875" customWidth="1"/>
-    <col min="10" max="10" width="23.47265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="221.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
